--- a/data/sub-9999/retrieval2.xlsx
+++ b/data/sub-9999/retrieval2.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>retrieval2</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
     <t>SetC/049a.jpg</t>
   </si>
   <si>
@@ -197,6 +203,15 @@
   </si>
   <si>
     <t>SetC/108a.jpg</t>
+  </si>
+  <si>
+    <t>targ</t>
+  </si>
+  <si>
+    <t>lure</t>
+  </si>
+  <si>
+    <t>foil</t>
   </si>
 </sst>
 </file>
@@ -554,315 +569,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/sub-9999/retrieval2.xlsx
+++ b/data/sub-9999/retrieval2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="69">
   <si>
     <t>retrieval2</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>foil</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -593,8 +602,8 @@
       <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -604,8 +613,8 @@
       <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -615,8 +624,8 @@
       <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -626,8 +635,8 @@
       <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -637,8 +646,8 @@
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -648,8 +657,8 @@
       <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -659,8 +668,8 @@
       <c r="B8" t="s">
         <v>63</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -670,8 +679,8 @@
       <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -681,8 +690,8 @@
       <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -692,8 +701,8 @@
       <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -703,8 +712,8 @@
       <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -714,8 +723,8 @@
       <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -725,8 +734,8 @@
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -736,8 +745,8 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -747,8 +756,8 @@
       <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -758,8 +767,8 @@
       <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -769,8 +778,8 @@
       <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -780,8 +789,8 @@
       <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -791,8 +800,8 @@
       <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -802,8 +811,8 @@
       <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -813,8 +822,8 @@
       <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -824,8 +833,8 @@
       <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -835,8 +844,8 @@
       <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -846,8 +855,8 @@
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -857,8 +866,8 @@
       <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="C26">
-        <v>2</v>
+      <c r="C26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -868,8 +877,8 @@
       <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C27">
-        <v>2</v>
+      <c r="C27" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -879,8 +888,8 @@
       <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C28">
-        <v>2</v>
+      <c r="C28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -890,8 +899,8 @@
       <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="C29">
-        <v>2</v>
+      <c r="C29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -901,8 +910,8 @@
       <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="C30">
-        <v>2</v>
+      <c r="C30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -912,8 +921,8 @@
       <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="C31">
-        <v>2</v>
+      <c r="C31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -923,8 +932,8 @@
       <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="C32">
-        <v>2</v>
+      <c r="C32" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -934,8 +943,8 @@
       <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="C33">
-        <v>2</v>
+      <c r="C33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -945,8 +954,8 @@
       <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C34">
-        <v>2</v>
+      <c r="C34" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -956,8 +965,8 @@
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C35">
-        <v>2</v>
+      <c r="C35" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -967,8 +976,8 @@
       <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="C36">
-        <v>2</v>
+      <c r="C36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -978,8 +987,8 @@
       <c r="B37" t="s">
         <v>64</v>
       </c>
-      <c r="C37">
-        <v>2</v>
+      <c r="C37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -989,8 +998,8 @@
       <c r="B38" t="s">
         <v>64</v>
       </c>
-      <c r="C38">
-        <v>2</v>
+      <c r="C38" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1000,8 +1009,8 @@
       <c r="B39" t="s">
         <v>64</v>
       </c>
-      <c r="C39">
-        <v>2</v>
+      <c r="C39" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1011,8 +1020,8 @@
       <c r="B40" t="s">
         <v>64</v>
       </c>
-      <c r="C40">
-        <v>2</v>
+      <c r="C40" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1022,8 +1031,8 @@
       <c r="B41" t="s">
         <v>64</v>
       </c>
-      <c r="C41">
-        <v>2</v>
+      <c r="C41" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1033,8 +1042,8 @@
       <c r="B42" t="s">
         <v>64</v>
       </c>
-      <c r="C42">
-        <v>2</v>
+      <c r="C42" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1044,8 +1053,8 @@
       <c r="B43" t="s">
         <v>64</v>
       </c>
-      <c r="C43">
-        <v>2</v>
+      <c r="C43" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1055,8 +1064,8 @@
       <c r="B44" t="s">
         <v>64</v>
       </c>
-      <c r="C44">
-        <v>2</v>
+      <c r="C44" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1066,8 +1075,8 @@
       <c r="B45" t="s">
         <v>64</v>
       </c>
-      <c r="C45">
-        <v>2</v>
+      <c r="C45" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1077,8 +1086,8 @@
       <c r="B46" t="s">
         <v>64</v>
       </c>
-      <c r="C46">
-        <v>2</v>
+      <c r="C46" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1088,8 +1097,8 @@
       <c r="B47" t="s">
         <v>64</v>
       </c>
-      <c r="C47">
-        <v>2</v>
+      <c r="C47" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1099,8 +1108,8 @@
       <c r="B48" t="s">
         <v>64</v>
       </c>
-      <c r="C48">
-        <v>2</v>
+      <c r="C48" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1110,8 +1119,8 @@
       <c r="B49" t="s">
         <v>64</v>
       </c>
-      <c r="C49">
-        <v>2</v>
+      <c r="C49" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1121,8 +1130,8 @@
       <c r="B50" t="s">
         <v>65</v>
       </c>
-      <c r="C50">
-        <v>3</v>
+      <c r="C50" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1132,8 +1141,8 @@
       <c r="B51" t="s">
         <v>65</v>
       </c>
-      <c r="C51">
-        <v>3</v>
+      <c r="C51" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1143,8 +1152,8 @@
       <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c r="C52">
-        <v>3</v>
+      <c r="C52" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1154,8 +1163,8 @@
       <c r="B53" t="s">
         <v>65</v>
       </c>
-      <c r="C53">
-        <v>3</v>
+      <c r="C53" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1165,8 +1174,8 @@
       <c r="B54" t="s">
         <v>65</v>
       </c>
-      <c r="C54">
-        <v>3</v>
+      <c r="C54" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1176,8 +1185,8 @@
       <c r="B55" t="s">
         <v>65</v>
       </c>
-      <c r="C55">
-        <v>3</v>
+      <c r="C55" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1187,8 +1196,8 @@
       <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="C56">
-        <v>3</v>
+      <c r="C56" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1198,8 +1207,8 @@
       <c r="B57" t="s">
         <v>65</v>
       </c>
-      <c r="C57">
-        <v>3</v>
+      <c r="C57" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1209,8 +1218,8 @@
       <c r="B58" t="s">
         <v>65</v>
       </c>
-      <c r="C58">
-        <v>3</v>
+      <c r="C58" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1220,8 +1229,8 @@
       <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="C59">
-        <v>3</v>
+      <c r="C59" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1231,8 +1240,8 @@
       <c r="B60" t="s">
         <v>65</v>
       </c>
-      <c r="C60">
-        <v>3</v>
+      <c r="C60" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1242,8 +1251,8 @@
       <c r="B61" t="s">
         <v>65</v>
       </c>
-      <c r="C61">
-        <v>3</v>
+      <c r="C61" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
